--- a/doc/SortedArray_benchmark.xlsx
+++ b/doc/SortedArray_benchmark.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>n</t>
   </si>
@@ -63,14 +63,57 @@
     <t>60.6 MB</t>
   </si>
   <si>
-    <t>n is the number of elements int the container</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the number of elements in the container</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the time in ms to lookup 1'000'000 known elements + 1'000'000 unkown elements</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,16 +137,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -111,16 +168,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,9 +271,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.6266185476815402E-2"/>
-          <c:y val="0.18091462525517643"/>
-          <c:w val="0.62517825896762902"/>
-          <c:h val="0.68921660834062404"/>
+          <c:y val="7.9679984446388644E-2"/>
+          <c:w val="0.85594757386095965"/>
+          <c:h val="0.85217964421114023"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -156,7 +283,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$7</c:f>
+              <c:f>Sheet1!$AC$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -177,8 +304,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.6720253718285216E-2"/>
-                  <c:y val="0.32834463400408281"/>
+                  <c:x val="-0.2553982434887947"/>
+                  <c:y val="0.36603927286866922"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -186,7 +313,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$8:$M$27</c:f>
+              <c:f>Sheet1!$AB$8:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -255,7 +382,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$8:$N$27</c:f>
+              <c:f>Sheet1!$AC$8:$AC$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -354,7 +481,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79556615519213947"/>
+          <c:y val="0.37754214056576263"/>
+          <c:w val="0.13254420994369978"/>
+          <c:h val="9.2250348871680293E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -374,7 +510,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.842485431572277E-2"/>
+          <c:y val="0.1037031646460089"/>
+          <c:w val="0.8660244141586706"/>
+          <c:h val="0.83455523697245793"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -382,7 +528,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$7</c:f>
+              <c:f>Sheet1!$AP$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -403,8 +549,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3722003499562556E-2"/>
-                  <c:y val="0.35149278215223095"/>
+                  <c:x val="-0.37053431126981884"/>
+                  <c:y val="0.4182525797953629"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -412,7 +558,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$X$8:$X$27</c:f>
+              <c:f>Sheet1!$AO$8:$AO$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -481,7 +627,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$8:$Y$27</c:f>
+              <c:f>Sheet1!$AP$8:$AP$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -580,11 +726,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72521046614687035"/>
+          <c:y val="0.38772895532235918"/>
+          <c:w val="0.15515930003039996"/>
+          <c:h val="0.13082665036556199"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -604,7 +755,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8552999502513168E-2"/>
+          <c:y val="0.1040879630305952"/>
+          <c:w val="0.87016279827766629"/>
+          <c:h val="0.83394134174786594"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -612,7 +773,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AI$7</c:f>
+              <c:f>Sheet1!$BC$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -633,8 +794,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10205533683289589"/>
-                  <c:y val="0.36075204141149025"/>
+                  <c:x val="-0.35789683152351054"/>
+                  <c:y val="0.42186259185134328"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -642,7 +803,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AH$8:$AH$27</c:f>
+              <c:f>Sheet1!$BB$8:$BB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -711,7 +872,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AI$8:$AI$27</c:f>
+              <c:f>Sheet1!$BC$8:$BC$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -810,11 +971,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71822551592815609"/>
+          <c:y val="0.37989121489683919"/>
+          <c:w val="0.16412742524831456"/>
+          <c:h val="0.13873324276023938"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -834,7 +1000,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8681564149816793E-2"/>
+          <c:y val="0.1040879630305952"/>
+          <c:w val="0.8277450588725509"/>
+          <c:h val="0.83394134174786594"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -842,7 +1018,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$7</c:f>
+              <c:f>Sheet1!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -872,7 +1048,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$27</c:f>
+              <c:f>Sheet1!$O$8:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -941,7 +1117,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$27</c:f>
+              <c:f>Sheet1!$P$8:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1040,7 +1216,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82613193809039009"/>
+          <c:y val="0.40452592776552276"/>
+          <c:w val="0.14549926758336879"/>
+          <c:h val="8.9464011803719337E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1060,7 +1245,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2038264953722892E-2"/>
+          <c:y val="0.10373967466930115"/>
+          <c:w val="0.81047175024174611"/>
+          <c:h val="0.81593973170112211"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -1068,7 +1263,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$31</c:f>
+              <c:f>Sheet1!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1098,7 +1293,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$B$51</c:f>
+              <c:f>Sheet1!$B$8:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1167,7 +1362,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$32:$C$51</c:f>
+              <c:f>Sheet1!$C$8:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1266,7 +1461,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80115122945158168"/>
+          <c:y val="0.39463098386124124"/>
+          <c:w val="0.14621719160104987"/>
+          <c:h val="8.9463994377846717E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1282,16 +1486,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1312,16 +1516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1342,16 +1546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1372,16 +1576,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1404,14 +1608,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1718,15 +1922,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AL52"/>
+  <dimension ref="B1:BF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:35" ht="18.75">
+    <row r="1" spans="2:58" ht="18.75">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1734,837 +1938,792 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="4" spans="2:35">
+    <row r="3" spans="2:58">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:58">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:35">
+    <row r="6" spans="2:58">
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="R6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" t="s">
+        <v>9</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="AB6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AO6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="1"/>
-      <c r="AH6" t="s">
+      <c r="AP6" s="1"/>
+      <c r="AR6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="BE6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="2:35">
-      <c r="B7" t="s">
+    <row r="7" spans="2:58">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AB7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AC7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AO7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AP7" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="BB7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:35">
-      <c r="B8">
+    <row r="8" spans="2:58">
+      <c r="B8" s="6">
         <v>9995</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
+        <v>1891</v>
+      </c>
+      <c r="O8" s="6">
+        <v>9995</v>
+      </c>
+      <c r="P8" s="12">
         <v>1525</v>
       </c>
-      <c r="M8">
+      <c r="AB8" s="6">
         <v>9995</v>
       </c>
-      <c r="N8" s="2">
+      <c r="AC8" s="12">
         <v>1511</v>
       </c>
-      <c r="X8">
+      <c r="AO8" s="6">
         <v>9995</v>
       </c>
-      <c r="Y8">
+      <c r="AP8" s="7">
         <v>1588</v>
       </c>
-      <c r="AH8">
+      <c r="BB8" s="6">
         <v>9995</v>
       </c>
-      <c r="AI8">
+      <c r="BC8" s="7">
         <v>1646</v>
       </c>
     </row>
-    <row r="9" spans="2:35">
-      <c r="B9">
+    <row r="9" spans="2:58">
+      <c r="B9" s="8">
         <v>19982</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
+        <v>2207</v>
+      </c>
+      <c r="O9" s="8">
+        <v>19982</v>
+      </c>
+      <c r="P9" s="9">
         <v>1681</v>
       </c>
-      <c r="M9">
+      <c r="AB9" s="8">
         <v>19982</v>
       </c>
-      <c r="N9">
+      <c r="AC9" s="9">
         <v>1666</v>
       </c>
-      <c r="X9">
+      <c r="AO9" s="8">
         <v>19982</v>
       </c>
-      <c r="Y9">
+      <c r="AP9" s="9">
         <v>1778</v>
       </c>
-      <c r="AH9">
+      <c r="BB9" s="8">
         <v>19982</v>
       </c>
-      <c r="AI9">
+      <c r="BC9" s="9">
         <v>1818</v>
       </c>
     </row>
-    <row r="10" spans="2:35">
-      <c r="B10">
+    <row r="10" spans="2:58">
+      <c r="B10" s="8">
         <v>29959</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
+        <v>2433</v>
+      </c>
+      <c r="O10" s="8">
+        <v>29959</v>
+      </c>
+      <c r="P10" s="9">
         <v>1790</v>
       </c>
-      <c r="M10">
+      <c r="AB10" s="8">
         <v>29959</v>
       </c>
-      <c r="N10">
+      <c r="AC10" s="9">
         <v>1729</v>
       </c>
-      <c r="X10">
+      <c r="AO10" s="8">
         <v>29959</v>
       </c>
-      <c r="Y10">
+      <c r="AP10" s="9">
         <v>1922</v>
       </c>
-      <c r="AH10">
+      <c r="BB10" s="8">
         <v>29959</v>
       </c>
-      <c r="AI10">
+      <c r="BC10" s="9">
         <v>1929</v>
       </c>
     </row>
-    <row r="11" spans="2:35">
-      <c r="B11">
+    <row r="11" spans="2:58">
+      <c r="B11" s="8">
         <v>39931</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
+        <v>2794</v>
+      </c>
+      <c r="O11" s="8">
+        <v>39931</v>
+      </c>
+      <c r="P11" s="9">
         <v>1876</v>
       </c>
-      <c r="M11">
+      <c r="AB11" s="8">
         <v>39931</v>
       </c>
-      <c r="N11">
+      <c r="AC11" s="9">
         <v>1842</v>
       </c>
-      <c r="X11">
+      <c r="AO11" s="8">
         <v>39931</v>
       </c>
-      <c r="Y11">
+      <c r="AP11" s="9">
         <v>1981</v>
       </c>
-      <c r="AH11">
+      <c r="BB11" s="8">
         <v>39931</v>
       </c>
-      <c r="AI11">
+      <c r="BC11" s="9">
         <v>2045</v>
       </c>
     </row>
-    <row r="12" spans="2:35">
-      <c r="B12">
+    <row r="12" spans="2:58">
+      <c r="B12" s="8">
         <v>49903</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
+        <v>2959</v>
+      </c>
+      <c r="O12" s="8">
+        <v>49903</v>
+      </c>
+      <c r="P12" s="9">
         <v>1953</v>
       </c>
-      <c r="M12">
+      <c r="AB12" s="8">
         <v>49903</v>
       </c>
-      <c r="N12">
+      <c r="AC12" s="9">
         <v>1924</v>
       </c>
-      <c r="X12">
+      <c r="AO12" s="8">
         <v>49903</v>
       </c>
-      <c r="Y12">
+      <c r="AP12" s="9">
         <v>2071</v>
       </c>
-      <c r="AH12">
+      <c r="BB12" s="8">
         <v>49903</v>
       </c>
-      <c r="AI12">
+      <c r="BC12" s="9">
         <v>2077</v>
       </c>
     </row>
-    <row r="13" spans="2:35">
-      <c r="B13">
+    <row r="13" spans="2:58">
+      <c r="B13" s="8">
         <v>59844</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
+        <v>2912</v>
+      </c>
+      <c r="O13" s="8">
+        <v>59844</v>
+      </c>
+      <c r="P13" s="9">
         <v>1971</v>
       </c>
-      <c r="M13">
+      <c r="AB13" s="8">
         <v>59844</v>
       </c>
-      <c r="N13">
+      <c r="AC13" s="9">
         <v>1958</v>
       </c>
-      <c r="X13">
+      <c r="AO13" s="8">
         <v>59844</v>
       </c>
-      <c r="Y13">
+      <c r="AP13" s="9">
         <v>2066</v>
       </c>
-      <c r="AH13">
+      <c r="BB13" s="8">
         <v>59844</v>
       </c>
-      <c r="AI13">
+      <c r="BC13" s="9">
         <v>2166</v>
       </c>
     </row>
-    <row r="14" spans="2:35">
-      <c r="B14">
+    <row r="14" spans="2:58">
+      <c r="B14" s="8">
         <v>69789</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
+        <v>3099</v>
+      </c>
+      <c r="O14" s="8">
+        <v>69789</v>
+      </c>
+      <c r="P14" s="9">
         <v>1962</v>
       </c>
-      <c r="M14">
+      <c r="AB14" s="8">
         <v>69789</v>
       </c>
-      <c r="N14">
+      <c r="AC14" s="9">
         <v>2026</v>
       </c>
-      <c r="X14">
+      <c r="AO14" s="8">
         <v>69789</v>
       </c>
-      <c r="Y14">
+      <c r="AP14" s="9">
         <v>2169</v>
       </c>
-      <c r="AH14">
+      <c r="BB14" s="8">
         <v>69789</v>
       </c>
-      <c r="AI14">
+      <c r="BC14" s="9">
         <v>2192</v>
       </c>
     </row>
-    <row r="15" spans="2:35">
-      <c r="B15">
+    <row r="15" spans="2:58">
+      <c r="B15" s="8">
         <v>79712</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
+        <v>3241</v>
+      </c>
+      <c r="O15" s="8">
+        <v>79712</v>
+      </c>
+      <c r="P15" s="9">
         <v>2001</v>
       </c>
-      <c r="M15">
+      <c r="AB15" s="8">
         <v>79712</v>
       </c>
-      <c r="N15">
+      <c r="AC15" s="9">
         <v>2093</v>
       </c>
-      <c r="X15">
+      <c r="AO15" s="8">
         <v>79712</v>
       </c>
-      <c r="Y15">
+      <c r="AP15" s="9">
         <v>2215</v>
       </c>
-      <c r="AH15">
+      <c r="BB15" s="8">
         <v>79712</v>
       </c>
-      <c r="AI15">
+      <c r="BC15" s="9">
         <v>2225</v>
       </c>
     </row>
-    <row r="16" spans="2:35">
-      <c r="B16">
+    <row r="16" spans="2:58">
+      <c r="B16" s="8">
         <v>89642</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="9">
+        <v>3452</v>
+      </c>
+      <c r="O16" s="8">
+        <v>89642</v>
+      </c>
+      <c r="P16" s="9">
         <v>2091</v>
       </c>
-      <c r="M16">
+      <c r="AB16" s="8">
         <v>89642</v>
       </c>
-      <c r="N16">
+      <c r="AC16" s="9">
         <v>2073</v>
       </c>
-      <c r="X16">
+      <c r="AO16" s="8">
         <v>89642</v>
       </c>
-      <c r="Y16">
+      <c r="AP16" s="9">
         <v>2291</v>
       </c>
-      <c r="AH16">
+      <c r="BB16" s="8">
         <v>89642</v>
       </c>
-      <c r="AI16">
+      <c r="BC16" s="9">
         <v>2259</v>
       </c>
     </row>
-    <row r="17" spans="2:38">
-      <c r="B17">
+    <row r="17" spans="2:55">
+      <c r="B17" s="8">
         <v>99568</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
+        <v>3387</v>
+      </c>
+      <c r="O17" s="8">
+        <v>99568</v>
+      </c>
+      <c r="P17" s="9">
         <v>2121</v>
       </c>
-      <c r="M17">
+      <c r="AB17" s="8">
         <v>99568</v>
       </c>
-      <c r="N17">
+      <c r="AC17" s="9">
         <v>2099</v>
       </c>
-      <c r="X17">
+      <c r="AO17" s="8">
         <v>99568</v>
       </c>
-      <c r="Y17">
+      <c r="AP17" s="9">
         <v>2277</v>
       </c>
-      <c r="AH17">
+      <c r="BB17" s="8">
         <v>99568</v>
       </c>
-      <c r="AI17">
+      <c r="BC17" s="9">
         <v>2303</v>
       </c>
     </row>
-    <row r="18" spans="2:38">
-      <c r="B18">
+    <row r="18" spans="2:55">
+      <c r="B18" s="8">
         <v>109476</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
+        <v>3338</v>
+      </c>
+      <c r="O18" s="8">
+        <v>109476</v>
+      </c>
+      <c r="P18" s="9">
         <v>2162</v>
       </c>
-      <c r="M18">
+      <c r="AB18" s="8">
         <v>109476</v>
       </c>
-      <c r="N18">
+      <c r="AC18" s="9">
         <v>2140</v>
       </c>
-      <c r="X18">
+      <c r="AO18" s="8">
         <v>109476</v>
       </c>
-      <c r="Y18">
+      <c r="AP18" s="9">
         <v>2301</v>
       </c>
-      <c r="AH18">
+      <c r="BB18" s="8">
         <v>109476</v>
       </c>
-      <c r="AI18">
+      <c r="BC18" s="9">
         <v>2338</v>
       </c>
     </row>
-    <row r="19" spans="2:38">
-      <c r="B19">
+    <row r="19" spans="2:55">
+      <c r="B19" s="8">
         <v>119367</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
+        <v>3504</v>
+      </c>
+      <c r="O19" s="8">
+        <v>119367</v>
+      </c>
+      <c r="P19" s="9">
         <v>2211</v>
       </c>
-      <c r="M19">
+      <c r="AB19" s="8">
         <v>119367</v>
       </c>
-      <c r="N19">
+      <c r="AC19" s="9">
         <v>2182</v>
       </c>
-      <c r="X19">
+      <c r="AO19" s="8">
         <v>119367</v>
       </c>
-      <c r="Y19">
+      <c r="AP19" s="9">
         <v>2362</v>
       </c>
-      <c r="AH19">
+      <c r="BB19" s="8">
         <v>119367</v>
       </c>
-      <c r="AI19">
+      <c r="BC19" s="9">
         <v>2371</v>
       </c>
     </row>
-    <row r="20" spans="2:38">
-      <c r="B20">
+    <row r="20" spans="2:55">
+      <c r="B20" s="8">
         <v>129263</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="9">
+        <v>3855</v>
+      </c>
+      <c r="O20" s="8">
+        <v>129263</v>
+      </c>
+      <c r="P20" s="9">
         <v>2229</v>
       </c>
-      <c r="M20">
+      <c r="AB20" s="8">
         <v>129263</v>
       </c>
-      <c r="N20">
+      <c r="AC20" s="9">
         <v>2258</v>
       </c>
-      <c r="X20">
+      <c r="AO20" s="8">
         <v>129263</v>
       </c>
-      <c r="Y20">
+      <c r="AP20" s="9">
         <v>2420</v>
       </c>
-      <c r="AH20">
+      <c r="BB20" s="8">
         <v>129263</v>
       </c>
-      <c r="AI20">
+      <c r="BC20" s="9">
         <v>2453</v>
       </c>
     </row>
-    <row r="21" spans="2:38">
-      <c r="B21">
+    <row r="21" spans="2:55">
+      <c r="B21" s="8">
         <v>139148</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="9">
+        <v>4052</v>
+      </c>
+      <c r="O21" s="8">
+        <v>139148</v>
+      </c>
+      <c r="P21" s="9">
         <v>2260</v>
       </c>
-      <c r="M21">
+      <c r="AB21" s="8">
         <v>139148</v>
       </c>
-      <c r="N21">
+      <c r="AC21" s="9">
         <v>2265</v>
       </c>
-      <c r="X21">
+      <c r="AO21" s="8">
         <v>139148</v>
       </c>
-      <c r="Y21">
+      <c r="AP21" s="9">
         <v>2513</v>
       </c>
-      <c r="AH21">
+      <c r="BB21" s="8">
         <v>139148</v>
       </c>
-      <c r="AI21">
+      <c r="BC21" s="9">
         <v>2489</v>
       </c>
     </row>
-    <row r="22" spans="2:38">
-      <c r="B22">
+    <row r="22" spans="2:55">
+      <c r="B22" s="8">
         <v>149025</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="9">
+        <v>4186</v>
+      </c>
+      <c r="O22" s="8">
+        <v>149025</v>
+      </c>
+      <c r="P22" s="9">
         <v>2315</v>
       </c>
-      <c r="M22">
+      <c r="AB22" s="8">
         <v>149025</v>
       </c>
-      <c r="N22">
+      <c r="AC22" s="9">
         <v>2334</v>
       </c>
-      <c r="X22">
+      <c r="AO22" s="8">
         <v>149025</v>
       </c>
-      <c r="Y22">
+      <c r="AP22" s="9">
         <v>2460</v>
       </c>
-      <c r="AH22">
+      <c r="BB22" s="8">
         <v>149025</v>
       </c>
-      <c r="AI22">
+      <c r="BC22" s="9">
         <v>2580</v>
       </c>
     </row>
-    <row r="23" spans="2:38">
-      <c r="B23">
+    <row r="23" spans="2:55">
+      <c r="B23" s="8">
         <v>158895</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="9">
+        <v>4320</v>
+      </c>
+      <c r="O23" s="8">
+        <v>158895</v>
+      </c>
+      <c r="P23" s="9">
         <v>2338</v>
       </c>
-      <c r="M23">
+      <c r="AB23" s="8">
         <v>158895</v>
       </c>
-      <c r="N23">
+      <c r="AC23" s="9">
         <v>2357</v>
       </c>
-      <c r="X23">
+      <c r="AO23" s="8">
         <v>158895</v>
       </c>
-      <c r="Y23">
+      <c r="AP23" s="9">
         <v>2515</v>
       </c>
-      <c r="AH23">
+      <c r="BB23" s="8">
         <v>158895</v>
       </c>
-      <c r="AI23">
+      <c r="BC23" s="9">
         <v>2554</v>
       </c>
     </row>
-    <row r="24" spans="2:38">
-      <c r="B24">
+    <row r="24" spans="2:55">
+      <c r="B24" s="8">
         <v>168768</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="9">
+        <v>4560</v>
+      </c>
+      <c r="O24" s="8">
+        <v>168768</v>
+      </c>
+      <c r="P24" s="9">
         <v>2360</v>
       </c>
-      <c r="M24">
+      <c r="AB24" s="8">
         <v>168768</v>
       </c>
-      <c r="N24">
+      <c r="AC24" s="9">
         <v>2402</v>
       </c>
-      <c r="X24">
+      <c r="AO24" s="8">
         <v>168768</v>
       </c>
-      <c r="Y24">
+      <c r="AP24" s="9">
         <v>2573</v>
       </c>
-      <c r="AH24">
+      <c r="BB24" s="8">
         <v>168768</v>
       </c>
-      <c r="AI24">
+      <c r="BC24" s="9">
         <v>2633</v>
       </c>
     </row>
-    <row r="25" spans="2:38">
-      <c r="B25">
+    <row r="25" spans="2:55">
+      <c r="B25" s="8">
         <v>178619</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="9">
+        <v>4663</v>
+      </c>
+      <c r="O25" s="8">
+        <v>178619</v>
+      </c>
+      <c r="P25" s="9">
         <v>2442</v>
       </c>
-      <c r="M25">
+      <c r="AB25" s="8">
         <v>178619</v>
       </c>
-      <c r="N25">
+      <c r="AC25" s="9">
         <v>2474</v>
       </c>
-      <c r="X25">
+      <c r="AO25" s="8">
         <v>178619</v>
       </c>
-      <c r="Y25">
+      <c r="AP25" s="9">
         <v>2639</v>
       </c>
-      <c r="AH25">
+      <c r="BB25" s="8">
         <v>178619</v>
       </c>
-      <c r="AI25">
+      <c r="BC25" s="9">
         <v>2664</v>
       </c>
     </row>
-    <row r="26" spans="2:38">
-      <c r="B26">
+    <row r="26" spans="2:55">
+      <c r="B26" s="8">
         <v>188458</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="9">
+        <v>4716</v>
+      </c>
+      <c r="O26" s="8">
+        <v>188458</v>
+      </c>
+      <c r="P26" s="9">
         <v>2428</v>
       </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26">
+      <c r="AB26" s="8">
         <v>188458</v>
       </c>
-      <c r="N26">
+      <c r="AC26" s="9">
         <v>2448</v>
       </c>
-      <c r="P26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>10</v>
-      </c>
-      <c r="X26">
+      <c r="AO26" s="8">
         <v>188458</v>
       </c>
-      <c r="Y26">
+      <c r="AP26" s="9">
         <v>2679</v>
       </c>
-      <c r="AA26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH26">
+      <c r="BB26" s="8">
         <v>188458</v>
       </c>
-      <c r="AI26">
+      <c r="BC26" s="9">
         <v>2714</v>
       </c>
-      <c r="AK26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="27" spans="2:38">
-      <c r="B27">
+    <row r="27" spans="2:55">
+      <c r="B27" s="10">
         <v>198310</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="11">
+        <v>4719</v>
+      </c>
+      <c r="O27" s="10">
+        <v>198310</v>
+      </c>
+      <c r="P27" s="11">
         <v>2465</v>
       </c>
-      <c r="M27">
+      <c r="AB27" s="10">
         <v>198310</v>
       </c>
-      <c r="N27">
+      <c r="AC27" s="11">
         <v>2559</v>
       </c>
-      <c r="X27">
+      <c r="AO27" s="10">
         <v>198310</v>
       </c>
-      <c r="Y27">
+      <c r="AP27" s="11">
         <v>2647</v>
       </c>
-      <c r="AH27">
+      <c r="BB27" s="10">
         <v>198310</v>
       </c>
-      <c r="AI27">
+      <c r="BC27" s="11">
         <v>2769</v>
       </c>
     </row>
-    <row r="28" spans="2:38">
-      <c r="B28" t="s">
+    <row r="28" spans="2:55" s="5" customFormat="1">
+      <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <f>SUM(C8:C27) /COUNT(C8:C27)</f>
+        <v>3514.4</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="5">
+        <f>SUM(P8:P27) /COUNT(P8:P27)</f>
         <v>2109.0500000000002</v>
       </c>
-      <c r="M28" t="s">
+      <c r="AB28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N28">
-        <f>SUM(N8:N27) /COUNT(N8:N27)</f>
+      <c r="AC28" s="5">
+        <f>SUM(AC8:AC27) /COUNT(AC8:AC27)</f>
         <v>2117</v>
       </c>
-      <c r="X28" t="s">
+      <c r="AO28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y28">
-        <f>SUM(Y8:Y27) /COUNT(Y8:Y27)</f>
+      <c r="AP28" s="5">
+        <f>SUM(AP8:AP27) /COUNT(AP8:AP27)</f>
         <v>2273.35</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="BB28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AI28">
-        <f>SUM(AI8:AI27) /COUNT(AI8:AI27)</f>
+      <c r="BC28" s="5">
+        <f>SUM(BC8:BC27) /COUNT(BC8:BC27)</f>
         <v>2311.25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:38">
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:38">
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:38">
-      <c r="B32">
-        <v>9995</v>
-      </c>
-      <c r="C32">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33">
-        <v>19982</v>
-      </c>
-      <c r="C33">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34">
-        <v>29959</v>
-      </c>
-      <c r="C34">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35">
-        <v>39931</v>
-      </c>
-      <c r="C35">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36">
-        <v>49903</v>
-      </c>
-      <c r="C36">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37">
-        <v>59844</v>
-      </c>
-      <c r="C37">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38">
-        <v>69789</v>
-      </c>
-      <c r="C38">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39">
-        <v>79712</v>
-      </c>
-      <c r="C39">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40">
-        <v>89642</v>
-      </c>
-      <c r="C40">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41">
-        <v>99568</v>
-      </c>
-      <c r="C41">
-        <v>3387</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42">
-        <v>109476</v>
-      </c>
-      <c r="C42">
-        <v>3338</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43">
-        <v>119367</v>
-      </c>
-      <c r="C43">
-        <v>3504</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44">
-        <v>129263</v>
-      </c>
-      <c r="C44">
-        <v>3855</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45">
-        <v>139148</v>
-      </c>
-      <c r="C45">
-        <v>4052</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46">
-        <v>149025</v>
-      </c>
-      <c r="C46">
-        <v>4186</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47">
-        <v>158895</v>
-      </c>
-      <c r="C47">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48">
-        <v>168768</v>
-      </c>
-      <c r="C48">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49">
-        <v>178619</v>
-      </c>
-      <c r="C49">
-        <v>4663</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50">
-        <v>188458</v>
-      </c>
-      <c r="C50">
-        <v>4716</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51">
-        <v>198310</v>
-      </c>
-      <c r="C51">
-        <v>4719</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <f>SUM(C32:C51) /COUNT(C32:C51)</f>
-        <v>3514.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/doc/SortedArray_benchmark.xlsx
+++ b/doc/SortedArray_benchmark.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>n</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>SortedArray, M = 7</t>
-  </si>
-  <si>
-    <t>Lookup</t>
   </si>
   <si>
     <t>Average:</t>
@@ -107,6 +104,21 @@
       </rPr>
       <t xml:space="preserve"> is the time in ms to lookup 1'000'000 known elements + 1'000'000 unkown elements</t>
     </r>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Height of the tree depending the order (M) and the number of elements</t>
+  </si>
+  <si>
+    <t>h = log_M(n+1) - 1</t>
+  </si>
+  <si>
+    <t>Order (M) :</t>
+  </si>
+  <si>
+    <t>Measurement of the time to lookup an element</t>
   </si>
 </sst>
 </file>
@@ -234,9 +246,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -248,6 +261,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,7 +301,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$7</c:f>
+              <c:f>Sheet1!$C$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -313,7 +331,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$8:$AB$27</c:f>
+              <c:f>Sheet1!$B$76:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -382,7 +400,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$8:$AC$27</c:f>
+              <c:f>Sheet1!$C$76:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -528,7 +546,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$7</c:f>
+              <c:f>Sheet1!$C$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -558,7 +576,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AO$8:$AO$27</c:f>
+              <c:f>Sheet1!$B$110:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -627,7 +645,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AP$8:$AP$27</c:f>
+              <c:f>Sheet1!$C$110:$C$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -773,7 +791,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BC$7</c:f>
+              <c:f>Sheet1!$C$143</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -803,7 +821,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$BB$8:$BB$27</c:f>
+              <c:f>Sheet1!$B$144:$B$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -872,7 +890,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$BC$8:$BC$27</c:f>
+              <c:f>Sheet1!$C$144:$C$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1018,7 +1036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$7</c:f>
+              <c:f>Sheet1!$C$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1048,7 +1066,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$8:$O$27</c:f>
+              <c:f>Sheet1!$B$42:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1117,7 +1135,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$8:$P$27</c:f>
+              <c:f>Sheet1!$C$42:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1482,19 +1500,514 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7501121945249074E-2"/>
+          <c:y val="4.0562419725393005E-2"/>
+          <c:w val="0.91149715093903416"/>
+          <c:h val="0.8631258188979023"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$6:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$6:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.2886196072783527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9190945823109331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5497968613774891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1806128563752036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8114857253279109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4423870352568287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0733025666737017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7042252090845356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.335151407054846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.966079382820524</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.597008247487787</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.227937556606824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.2926506986942279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.723016822119865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1535381046871249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5841370104534045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0147747387336672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.44543188100047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8760987309430446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3067704348941458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7374445658921713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1681199104243269</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5987958617262112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0294721164136273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$6:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$6:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.5503976289291845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9063480594281339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2624268201098046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6185697819671816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9747448534396366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3309359819772038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6871351396118168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0433383119360871</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3995434916404719</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7557496750437345</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1119563602986418</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4681632964799229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$6:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$6:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.6935248289473575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9635681938401475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2337089169923754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5038983466498697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.774112136408541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0443381079305194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3145701707624031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5848052793563134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8550419108580041</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1252793038202791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3955170775145183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6657550415751583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="62522496"/>
+        <c:axId val="61100032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="62522496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61100032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="61100032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62522496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85217981340118742"/>
+          <c:y val="0.49137501974616982"/>
+          <c:w val="7.2717391304347831E-2"/>
+          <c:h val="0.29951005021439175"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1516,15 +2029,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1546,15 +2059,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1576,15 +2089,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1629,6 +2142,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1922,804 +2465,1616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:BF28"/>
+  <dimension ref="A1:Z164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:58" ht="18.75">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:25" ht="18.75">
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25">
+      <c r="O2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="16">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="16">
+        <v>5</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="16">
+        <v>7</v>
+      </c>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25">
+      <c r="O5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="8">
+        <f>LOG(O6+1, $P$4)-1</f>
+        <v>5.2886196072783527</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S6" s="8">
+        <f>LOG(R6+1, $S$4)-1</f>
+        <v>3.2926506986942279</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V6" s="8">
+        <f>LOG(U6+1, $V$4)-1</f>
+        <v>2.5503976289291845</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Y6" s="8">
+        <f>LOG(X6+1, $Y$4)-1</f>
+        <v>1.6935248289473575</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9">
+        <f>2*O6</f>
+        <v>2000</v>
+      </c>
+      <c r="P7" s="10">
+        <f>LOG(O7+1, $P$4)-1</f>
+        <v>5.9190945823109331</v>
+      </c>
+      <c r="R7" s="9">
+        <f>2*R6</f>
+        <v>2000</v>
+      </c>
+      <c r="S7" s="10">
+        <f>LOG(R7+1, $S$4)-1</f>
+        <v>3.723016822119865</v>
+      </c>
+      <c r="U7" s="9">
+        <f>2*U6</f>
+        <v>2000</v>
+      </c>
+      <c r="V7" s="10">
+        <f>LOG(U7+1, $V$4)-1</f>
+        <v>2.9063480594281339</v>
+      </c>
+      <c r="X7" s="9">
+        <f>2*X6</f>
+        <v>2000</v>
+      </c>
+      <c r="Y7" s="10">
+        <f>LOG(X7+1, $Y$4)-1</f>
+        <v>1.9635681938401475</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25">
+      <c r="B8" s="7">
+        <v>9995</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1891</v>
+      </c>
+      <c r="O8" s="9">
+        <f>2*O7</f>
+        <v>4000</v>
+      </c>
+      <c r="P8" s="10">
+        <f>LOG(O8+1, $P$4)-1</f>
+        <v>6.5497968613774891</v>
+      </c>
+      <c r="R8" s="9">
+        <f>2*R7</f>
+        <v>4000</v>
+      </c>
+      <c r="S8" s="10">
+        <f>LOG(R8+1, $S$4)-1</f>
+        <v>4.1535381046871249</v>
+      </c>
+      <c r="U8" s="9">
+        <f>2*U7</f>
+        <v>4000</v>
+      </c>
+      <c r="V8" s="10">
+        <f>LOG(U8+1, $V$4)-1</f>
+        <v>3.2624268201098046</v>
+      </c>
+      <c r="X8" s="9">
+        <f>2*X7</f>
+        <v>4000</v>
+      </c>
+      <c r="Y8" s="10">
+        <f>LOG(X8+1, $Y$4)-1</f>
+        <v>2.2337089169923754</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25">
+      <c r="B9" s="9">
+        <v>19982</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2207</v>
+      </c>
+      <c r="O9" s="9">
+        <f>2*O8</f>
+        <v>8000</v>
+      </c>
+      <c r="P9" s="10">
+        <f>LOG(O9+1, $P$4)-1</f>
+        <v>7.1806128563752036</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" ref="R9:R16" si="0">2*R8</f>
+        <v>8000</v>
+      </c>
+      <c r="S9" s="10">
+        <f>LOG(R9+1, $S$4)-1</f>
+        <v>4.5841370104534045</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" ref="U9:U16" si="1">2*U8</f>
+        <v>8000</v>
+      </c>
+      <c r="V9" s="10">
+        <f>LOG(U9+1, $V$4)-1</f>
+        <v>3.6185697819671816</v>
+      </c>
+      <c r="X9" s="9">
+        <f t="shared" ref="X9:X16" si="2">2*X8</f>
+        <v>8000</v>
+      </c>
+      <c r="Y9" s="10">
+        <f>LOG(X9+1, $Y$4)-1</f>
+        <v>2.5038983466498697</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
+      <c r="B10" s="9">
+        <v>29959</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2433</v>
+      </c>
+      <c r="O10" s="9">
+        <f>2*O9</f>
+        <v>16000</v>
+      </c>
+      <c r="P10" s="10">
+        <f>LOG(O10+1, $P$4)-1</f>
+        <v>7.8114857253279109</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="S10" s="10">
+        <f>LOG(R10+1, $S$4)-1</f>
+        <v>5.0147747387336672</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="1"/>
+        <v>16000</v>
+      </c>
+      <c r="V10" s="10">
+        <f>LOG(U10+1, $V$4)-1</f>
+        <v>3.9747448534396366</v>
+      </c>
+      <c r="X10" s="9">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+      <c r="Y10" s="10">
+        <f>LOG(X10+1, $Y$4)-1</f>
+        <v>2.774112136408541</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25">
+      <c r="B11" s="9">
+        <v>39931</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2794</v>
+      </c>
+      <c r="O11" s="9">
+        <f>2*O10</f>
+        <v>32000</v>
+      </c>
+      <c r="P11" s="10">
+        <f>LOG(O11+1, $P$4)-1</f>
+        <v>8.4423870352568287</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="S11" s="10">
+        <f>LOG(R11+1, $S$4)-1</f>
+        <v>5.44543188100047</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
+      <c r="V11" s="10">
+        <f>LOG(U11+1, $V$4)-1</f>
+        <v>4.3309359819772038</v>
+      </c>
+      <c r="X11" s="9">
+        <f t="shared" si="2"/>
+        <v>32000</v>
+      </c>
+      <c r="Y11" s="10">
+        <f>LOG(X11+1, $Y$4)-1</f>
+        <v>3.0443381079305194</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25">
+      <c r="B12" s="9">
+        <v>49903</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2959</v>
+      </c>
+      <c r="O12" s="9">
+        <f>2*O11</f>
+        <v>64000</v>
+      </c>
+      <c r="P12" s="10">
+        <f>LOG(O12+1, $P$4)-1</f>
+        <v>9.0733025666737017</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="S12" s="10">
+        <f>LOG(R12+1, $S$4)-1</f>
+        <v>5.8760987309430446</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="1"/>
+        <v>64000</v>
+      </c>
+      <c r="V12" s="10">
+        <f>LOG(U12+1, $V$4)-1</f>
+        <v>4.6871351396118168</v>
+      </c>
+      <c r="X12" s="9">
+        <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
+      <c r="Y12" s="10">
+        <f>LOG(X12+1, $Y$4)-1</f>
+        <v>3.3145701707624031</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25">
+      <c r="B13" s="9">
+        <v>59844</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2912</v>
+      </c>
+      <c r="O13" s="9">
+        <f>2*O12</f>
+        <v>128000</v>
+      </c>
+      <c r="P13" s="10">
+        <f>LOG(O13+1, $P$4)-1</f>
+        <v>9.7042252090845356</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="S13" s="10">
+        <f>LOG(R13+1, $S$4)-1</f>
+        <v>6.3067704348941458</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="1"/>
+        <v>128000</v>
+      </c>
+      <c r="V13" s="10">
+        <f>LOG(U13+1, $V$4)-1</f>
+        <v>5.0433383119360871</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" si="2"/>
+        <v>128000</v>
+      </c>
+      <c r="Y13" s="10">
+        <f>LOG(X13+1, $Y$4)-1</f>
+        <v>3.5848052793563134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25">
+      <c r="B14" s="9">
+        <v>69789</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3099</v>
+      </c>
+      <c r="O14" s="9">
+        <f>2*O13</f>
+        <v>256000</v>
+      </c>
+      <c r="P14" s="10">
+        <f>LOG(O14+1, $P$4)-1</f>
+        <v>10.335151407054846</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="0"/>
+        <v>256000</v>
+      </c>
+      <c r="S14" s="10">
+        <f>LOG(R14+1, $S$4)-1</f>
+        <v>6.7374445658921713</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="1"/>
+        <v>256000</v>
+      </c>
+      <c r="V14" s="10">
+        <f>LOG(U14+1, $V$4)-1</f>
+        <v>5.3995434916404719</v>
+      </c>
+      <c r="X14" s="9">
+        <f t="shared" si="2"/>
+        <v>256000</v>
+      </c>
+      <c r="Y14" s="10">
+        <f>LOG(X14+1, $Y$4)-1</f>
+        <v>3.8550419108580041</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25">
+      <c r="B15" s="9">
+        <v>79712</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3241</v>
+      </c>
+      <c r="O15" s="9">
+        <f>2*O14</f>
+        <v>512000</v>
+      </c>
+      <c r="P15" s="10">
+        <f>LOG(O15+1, $P$4)-1</f>
+        <v>10.966079382820524</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="0"/>
+        <v>512000</v>
+      </c>
+      <c r="S15" s="10">
+        <f>LOG(R15+1, $S$4)-1</f>
+        <v>7.1681199104243269</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="1"/>
+        <v>512000</v>
+      </c>
+      <c r="V15" s="10">
+        <f>LOG(U15+1, $V$4)-1</f>
+        <v>5.7557496750437345</v>
+      </c>
+      <c r="X15" s="9">
+        <f t="shared" si="2"/>
+        <v>512000</v>
+      </c>
+      <c r="Y15" s="10">
+        <f>LOG(X15+1, $Y$4)-1</f>
+        <v>4.1252793038202791</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25">
+      <c r="B16" s="9">
+        <v>89642</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3452</v>
+      </c>
+      <c r="O16" s="9">
+        <f>2*O15</f>
+        <v>1024000</v>
+      </c>
+      <c r="P16" s="10">
+        <f>LOG(O16+1, $P$4)-1</f>
+        <v>11.597008247487787</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="0"/>
+        <v>1024000</v>
+      </c>
+      <c r="S16" s="10">
+        <f>LOG(R16+1, $S$4)-1</f>
+        <v>7.5987958617262112</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="1"/>
+        <v>1024000</v>
+      </c>
+      <c r="V16" s="10">
+        <f>LOG(U16+1, $V$4)-1</f>
+        <v>6.1119563602986418</v>
+      </c>
+      <c r="X16" s="9">
+        <f t="shared" si="2"/>
+        <v>1024000</v>
+      </c>
+      <c r="Y16" s="10">
+        <f>LOG(X16+1, $Y$4)-1</f>
+        <v>4.3955170775145183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26">
+      <c r="B17" s="9">
+        <v>99568</v>
+      </c>
+      <c r="C17" s="10">
+        <v>3387</v>
+      </c>
+      <c r="O17" s="11">
+        <f>2*O16</f>
+        <v>2048000</v>
+      </c>
+      <c r="P17" s="12">
+        <f>LOG(O17+1, $P$4)-1</f>
+        <v>12.227937556606824</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" ref="R17" si="3">2*R16</f>
+        <v>2048000</v>
+      </c>
+      <c r="S17" s="12">
+        <f>LOG(R17+1, $S$4)-1</f>
+        <v>8.0294721164136273</v>
+      </c>
+      <c r="U17" s="11">
+        <f t="shared" ref="U17" si="4">2*U16</f>
+        <v>2048000</v>
+      </c>
+      <c r="V17" s="12">
+        <f>LOG(U17+1, $V$4)-1</f>
+        <v>6.4681632964799229</v>
+      </c>
+      <c r="X17" s="11">
+        <f t="shared" ref="X17" si="5">2*X16</f>
+        <v>2048000</v>
+      </c>
+      <c r="Y17" s="12">
+        <f>LOG(X17+1, $Y$4)-1</f>
+        <v>4.6657550415751583</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="B18" s="9">
+        <v>109476</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26">
+      <c r="B19" s="9">
+        <v>119367</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26">
+      <c r="B20" s="9">
+        <v>129263</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26">
+      <c r="B21" s="9">
+        <v>139148</v>
+      </c>
+      <c r="C21" s="10">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26">
+      <c r="B22" s="9">
+        <v>149025</v>
+      </c>
+      <c r="C22" s="10">
+        <v>4186</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+    </row>
+    <row r="23" spans="2:26">
+      <c r="B23" s="9">
+        <v>158895</v>
+      </c>
+      <c r="C23" s="10">
+        <v>4320</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+    </row>
+    <row r="24" spans="2:26">
+      <c r="B24" s="9">
+        <v>168768</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4560</v>
+      </c>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="B25" s="9">
+        <v>178619</v>
+      </c>
+      <c r="C25" s="10">
+        <v>4663</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+    </row>
+    <row r="26" spans="2:26">
+      <c r="B26" s="9">
+        <v>188458</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4716</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="B27" s="11">
+        <v>198310</v>
+      </c>
+      <c r="C27" s="12">
+        <v>4719</v>
+      </c>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+    </row>
+    <row r="28" spans="2:26" s="6" customFormat="1">
+      <c r="B28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="3" spans="2:58">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:58">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:58">
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="AB6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AO6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP6" s="1"/>
-      <c r="AR6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:58">
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:58">
-      <c r="B8" s="6">
-        <v>9995</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1891</v>
-      </c>
-      <c r="O8" s="6">
-        <v>9995</v>
-      </c>
-      <c r="P8" s="12">
-        <v>1525</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>9995</v>
-      </c>
-      <c r="AC8" s="12">
-        <v>1511</v>
-      </c>
-      <c r="AO8" s="6">
-        <v>9995</v>
-      </c>
-      <c r="AP8" s="7">
-        <v>1588</v>
-      </c>
-      <c r="BB8" s="6">
-        <v>9995</v>
-      </c>
-      <c r="BC8" s="7">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="9" spans="2:58">
-      <c r="B9" s="8">
-        <v>19982</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2207</v>
-      </c>
-      <c r="O9" s="8">
-        <v>19982</v>
-      </c>
-      <c r="P9" s="9">
-        <v>1681</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>19982</v>
-      </c>
-      <c r="AC9" s="9">
-        <v>1666</v>
-      </c>
-      <c r="AO9" s="8">
-        <v>19982</v>
-      </c>
-      <c r="AP9" s="9">
-        <v>1778</v>
-      </c>
-      <c r="BB9" s="8">
-        <v>19982</v>
-      </c>
-      <c r="BC9" s="9">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="10" spans="2:58">
-      <c r="B10" s="8">
-        <v>29959</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2433</v>
-      </c>
-      <c r="O10" s="8">
-        <v>29959</v>
-      </c>
-      <c r="P10" s="9">
-        <v>1790</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>29959</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>1729</v>
-      </c>
-      <c r="AO10" s="8">
-        <v>29959</v>
-      </c>
-      <c r="AP10" s="9">
-        <v>1922</v>
-      </c>
-      <c r="BB10" s="8">
-        <v>29959</v>
-      </c>
-      <c r="BC10" s="9">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="11" spans="2:58">
-      <c r="B11" s="8">
-        <v>39931</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2794</v>
-      </c>
-      <c r="O11" s="8">
-        <v>39931</v>
-      </c>
-      <c r="P11" s="9">
-        <v>1876</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>39931</v>
-      </c>
-      <c r="AC11" s="9">
-        <v>1842</v>
-      </c>
-      <c r="AO11" s="8">
-        <v>39931</v>
-      </c>
-      <c r="AP11" s="9">
-        <v>1981</v>
-      </c>
-      <c r="BB11" s="8">
-        <v>39931</v>
-      </c>
-      <c r="BC11" s="9">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="12" spans="2:58">
-      <c r="B12" s="8">
-        <v>49903</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2959</v>
-      </c>
-      <c r="O12" s="8">
-        <v>49903</v>
-      </c>
-      <c r="P12" s="9">
-        <v>1953</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>49903</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>1924</v>
-      </c>
-      <c r="AO12" s="8">
-        <v>49903</v>
-      </c>
-      <c r="AP12" s="9">
-        <v>2071</v>
-      </c>
-      <c r="BB12" s="8">
-        <v>49903</v>
-      </c>
-      <c r="BC12" s="9">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="13" spans="2:58">
-      <c r="B13" s="8">
-        <v>59844</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2912</v>
-      </c>
-      <c r="O13" s="8">
-        <v>59844</v>
-      </c>
-      <c r="P13" s="9">
-        <v>1971</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>59844</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>1958</v>
-      </c>
-      <c r="AO13" s="8">
-        <v>59844</v>
-      </c>
-      <c r="AP13" s="9">
-        <v>2066</v>
-      </c>
-      <c r="BB13" s="8">
-        <v>59844</v>
-      </c>
-      <c r="BC13" s="9">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="14" spans="2:58">
-      <c r="B14" s="8">
-        <v>69789</v>
-      </c>
-      <c r="C14" s="9">
-        <v>3099</v>
-      </c>
-      <c r="O14" s="8">
-        <v>69789</v>
-      </c>
-      <c r="P14" s="9">
-        <v>1962</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>69789</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>2026</v>
-      </c>
-      <c r="AO14" s="8">
-        <v>69789</v>
-      </c>
-      <c r="AP14" s="9">
-        <v>2169</v>
-      </c>
-      <c r="BB14" s="8">
-        <v>69789</v>
-      </c>
-      <c r="BC14" s="9">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="15" spans="2:58">
-      <c r="B15" s="8">
-        <v>79712</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3241</v>
-      </c>
-      <c r="O15" s="8">
-        <v>79712</v>
-      </c>
-      <c r="P15" s="9">
-        <v>2001</v>
-      </c>
-      <c r="AB15" s="8">
-        <v>79712</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>2093</v>
-      </c>
-      <c r="AO15" s="8">
-        <v>79712</v>
-      </c>
-      <c r="AP15" s="9">
-        <v>2215</v>
-      </c>
-      <c r="BB15" s="8">
-        <v>79712</v>
-      </c>
-      <c r="BC15" s="9">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="16" spans="2:58">
-      <c r="B16" s="8">
-        <v>89642</v>
-      </c>
-      <c r="C16" s="9">
-        <v>3452</v>
-      </c>
-      <c r="O16" s="8">
-        <v>89642</v>
-      </c>
-      <c r="P16" s="9">
-        <v>2091</v>
-      </c>
-      <c r="AB16" s="8">
-        <v>89642</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>2073</v>
-      </c>
-      <c r="AO16" s="8">
-        <v>89642</v>
-      </c>
-      <c r="AP16" s="9">
-        <v>2291</v>
-      </c>
-      <c r="BB16" s="8">
-        <v>89642</v>
-      </c>
-      <c r="BC16" s="9">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="17" spans="2:55">
-      <c r="B17" s="8">
-        <v>99568</v>
-      </c>
-      <c r="C17" s="9">
-        <v>3387</v>
-      </c>
-      <c r="O17" s="8">
-        <v>99568</v>
-      </c>
-      <c r="P17" s="9">
-        <v>2121</v>
-      </c>
-      <c r="AB17" s="8">
-        <v>99568</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>2099</v>
-      </c>
-      <c r="AO17" s="8">
-        <v>99568</v>
-      </c>
-      <c r="AP17" s="9">
-        <v>2277</v>
-      </c>
-      <c r="BB17" s="8">
-        <v>99568</v>
-      </c>
-      <c r="BC17" s="9">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="18" spans="2:55">
-      <c r="B18" s="8">
-        <v>109476</v>
-      </c>
-      <c r="C18" s="9">
-        <v>3338</v>
-      </c>
-      <c r="O18" s="8">
-        <v>109476</v>
-      </c>
-      <c r="P18" s="9">
-        <v>2162</v>
-      </c>
-      <c r="AB18" s="8">
-        <v>109476</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>2140</v>
-      </c>
-      <c r="AO18" s="8">
-        <v>109476</v>
-      </c>
-      <c r="AP18" s="9">
-        <v>2301</v>
-      </c>
-      <c r="BB18" s="8">
-        <v>109476</v>
-      </c>
-      <c r="BC18" s="9">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="19" spans="2:55">
-      <c r="B19" s="8">
-        <v>119367</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3504</v>
-      </c>
-      <c r="O19" s="8">
-        <v>119367</v>
-      </c>
-      <c r="P19" s="9">
-        <v>2211</v>
-      </c>
-      <c r="AB19" s="8">
-        <v>119367</v>
-      </c>
-      <c r="AC19" s="9">
-        <v>2182</v>
-      </c>
-      <c r="AO19" s="8">
-        <v>119367</v>
-      </c>
-      <c r="AP19" s="9">
-        <v>2362</v>
-      </c>
-      <c r="BB19" s="8">
-        <v>119367</v>
-      </c>
-      <c r="BC19" s="9">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="20" spans="2:55">
-      <c r="B20" s="8">
-        <v>129263</v>
-      </c>
-      <c r="C20" s="9">
-        <v>3855</v>
-      </c>
-      <c r="O20" s="8">
-        <v>129263</v>
-      </c>
-      <c r="P20" s="9">
-        <v>2229</v>
-      </c>
-      <c r="AB20" s="8">
-        <v>129263</v>
-      </c>
-      <c r="AC20" s="9">
-        <v>2258</v>
-      </c>
-      <c r="AO20" s="8">
-        <v>129263</v>
-      </c>
-      <c r="AP20" s="9">
-        <v>2420</v>
-      </c>
-      <c r="BB20" s="8">
-        <v>129263</v>
-      </c>
-      <c r="BC20" s="9">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="21" spans="2:55">
-      <c r="B21" s="8">
-        <v>139148</v>
-      </c>
-      <c r="C21" s="9">
-        <v>4052</v>
-      </c>
-      <c r="O21" s="8">
-        <v>139148</v>
-      </c>
-      <c r="P21" s="9">
-        <v>2260</v>
-      </c>
-      <c r="AB21" s="8">
-        <v>139148</v>
-      </c>
-      <c r="AC21" s="9">
-        <v>2265</v>
-      </c>
-      <c r="AO21" s="8">
-        <v>139148</v>
-      </c>
-      <c r="AP21" s="9">
-        <v>2513</v>
-      </c>
-      <c r="BB21" s="8">
-        <v>139148</v>
-      </c>
-      <c r="BC21" s="9">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="22" spans="2:55">
-      <c r="B22" s="8">
-        <v>149025</v>
-      </c>
-      <c r="C22" s="9">
-        <v>4186</v>
-      </c>
-      <c r="O22" s="8">
-        <v>149025</v>
-      </c>
-      <c r="P22" s="9">
-        <v>2315</v>
-      </c>
-      <c r="AB22" s="8">
-        <v>149025</v>
-      </c>
-      <c r="AC22" s="9">
-        <v>2334</v>
-      </c>
-      <c r="AO22" s="8">
-        <v>149025</v>
-      </c>
-      <c r="AP22" s="9">
-        <v>2460</v>
-      </c>
-      <c r="BB22" s="8">
-        <v>149025</v>
-      </c>
-      <c r="BC22" s="9">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="23" spans="2:55">
-      <c r="B23" s="8">
-        <v>158895</v>
-      </c>
-      <c r="C23" s="9">
-        <v>4320</v>
-      </c>
-      <c r="O23" s="8">
-        <v>158895</v>
-      </c>
-      <c r="P23" s="9">
-        <v>2338</v>
-      </c>
-      <c r="AB23" s="8">
-        <v>158895</v>
-      </c>
-      <c r="AC23" s="9">
-        <v>2357</v>
-      </c>
-      <c r="AO23" s="8">
-        <v>158895</v>
-      </c>
-      <c r="AP23" s="9">
-        <v>2515</v>
-      </c>
-      <c r="BB23" s="8">
-        <v>158895</v>
-      </c>
-      <c r="BC23" s="9">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="24" spans="2:55">
-      <c r="B24" s="8">
-        <v>168768</v>
-      </c>
-      <c r="C24" s="9">
-        <v>4560</v>
-      </c>
-      <c r="O24" s="8">
-        <v>168768</v>
-      </c>
-      <c r="P24" s="9">
-        <v>2360</v>
-      </c>
-      <c r="AB24" s="8">
-        <v>168768</v>
-      </c>
-      <c r="AC24" s="9">
-        <v>2402</v>
-      </c>
-      <c r="AO24" s="8">
-        <v>168768</v>
-      </c>
-      <c r="AP24" s="9">
-        <v>2573</v>
-      </c>
-      <c r="BB24" s="8">
-        <v>168768</v>
-      </c>
-      <c r="BC24" s="9">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="25" spans="2:55">
-      <c r="B25" s="8">
-        <v>178619</v>
-      </c>
-      <c r="C25" s="9">
-        <v>4663</v>
-      </c>
-      <c r="O25" s="8">
-        <v>178619</v>
-      </c>
-      <c r="P25" s="9">
-        <v>2442</v>
-      </c>
-      <c r="AB25" s="8">
-        <v>178619</v>
-      </c>
-      <c r="AC25" s="9">
-        <v>2474</v>
-      </c>
-      <c r="AO25" s="8">
-        <v>178619</v>
-      </c>
-      <c r="AP25" s="9">
-        <v>2639</v>
-      </c>
-      <c r="BB25" s="8">
-        <v>178619</v>
-      </c>
-      <c r="BC25" s="9">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="26" spans="2:55">
-      <c r="B26" s="8">
-        <v>188458</v>
-      </c>
-      <c r="C26" s="9">
-        <v>4716</v>
-      </c>
-      <c r="O26" s="8">
-        <v>188458</v>
-      </c>
-      <c r="P26" s="9">
-        <v>2428</v>
-      </c>
-      <c r="AB26" s="8">
-        <v>188458</v>
-      </c>
-      <c r="AC26" s="9">
-        <v>2448</v>
-      </c>
-      <c r="AO26" s="8">
-        <v>188458</v>
-      </c>
-      <c r="AP26" s="9">
-        <v>2679</v>
-      </c>
-      <c r="BB26" s="8">
-        <v>188458</v>
-      </c>
-      <c r="BC26" s="9">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="27" spans="2:55">
-      <c r="B27" s="10">
-        <v>198310</v>
-      </c>
-      <c r="C27" s="11">
-        <v>4719</v>
-      </c>
-      <c r="O27" s="10">
-        <v>198310</v>
-      </c>
-      <c r="P27" s="11">
-        <v>2465</v>
-      </c>
-      <c r="AB27" s="10">
-        <v>198310</v>
-      </c>
-      <c r="AC27" s="11">
-        <v>2559</v>
-      </c>
-      <c r="AO27" s="10">
-        <v>198310</v>
-      </c>
-      <c r="AP27" s="11">
-        <v>2647</v>
-      </c>
-      <c r="BB27" s="10">
-        <v>198310</v>
-      </c>
-      <c r="BC27" s="11">
-        <v>2769</v>
-      </c>
-    </row>
-    <row r="28" spans="2:55" s="5" customFormat="1">
-      <c r="B28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
         <f>SUM(C8:C27) /COUNT(C8:C27)</f>
         <v>3514.4</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="15"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+    </row>
+    <row r="30" spans="2:26">
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+    </row>
+    <row r="31" spans="2:26">
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="7">
+        <v>9995</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="9">
+        <v>19982</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="9">
+        <v>29959</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="9">
+        <v>39931</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="9">
+        <v>49903</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="9">
+        <v>59844</v>
+      </c>
+      <c r="C47" s="10">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="9">
+        <v>69789</v>
+      </c>
+      <c r="C48" s="10">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="9">
+        <v>79712</v>
+      </c>
+      <c r="C49" s="10">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="9">
+        <v>89642</v>
+      </c>
+      <c r="C50" s="10">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="9">
+        <v>99568</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="9">
+        <v>109476</v>
+      </c>
+      <c r="C52" s="10">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="9">
+        <v>119367</v>
+      </c>
+      <c r="C53" s="10">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="9">
+        <v>129263</v>
+      </c>
+      <c r="C54" s="10">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="9">
+        <v>139148</v>
+      </c>
+      <c r="C55" s="10">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="9">
+        <v>149025</v>
+      </c>
+      <c r="C56" s="10">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="9">
+        <v>158895</v>
+      </c>
+      <c r="C57" s="10">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="9">
+        <v>168768</v>
+      </c>
+      <c r="C58" s="10">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="9">
+        <v>178619</v>
+      </c>
+      <c r="C59" s="10">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="9">
+        <v>188458</v>
+      </c>
+      <c r="C60" s="10">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="11">
+        <v>198310</v>
+      </c>
+      <c r="C61" s="12">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="6">
+        <f>SUM(C42:C61) /COUNT(C42:C61)</f>
+        <v>2109.0500000000002</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="7">
+        <v>9995</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="9">
+        <v>19982</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="9">
+        <v>29959</v>
+      </c>
+      <c r="C78" s="10">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="9">
+        <v>39931</v>
+      </c>
+      <c r="C79" s="10">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="9">
+        <v>49903</v>
+      </c>
+      <c r="C80" s="10">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="9">
+        <v>59844</v>
+      </c>
+      <c r="C81" s="10">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" s="9">
+        <v>69789</v>
+      </c>
+      <c r="C82" s="10">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="B83" s="9">
+        <v>79712</v>
+      </c>
+      <c r="C83" s="10">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="B84" s="9">
+        <v>89642</v>
+      </c>
+      <c r="C84" s="10">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="B85" s="9">
+        <v>99568</v>
+      </c>
+      <c r="C85" s="10">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="B86" s="9">
+        <v>109476</v>
+      </c>
+      <c r="C86" s="10">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87" s="9">
+        <v>119367</v>
+      </c>
+      <c r="C87" s="10">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13">
+      <c r="B88" s="9">
+        <v>129263</v>
+      </c>
+      <c r="C88" s="10">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="B89" s="9">
+        <v>139148</v>
+      </c>
+      <c r="C89" s="10">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90" s="9">
+        <v>149025</v>
+      </c>
+      <c r="C90" s="10">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13">
+      <c r="B91" s="9">
+        <v>158895</v>
+      </c>
+      <c r="C91" s="10">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" s="9">
+        <v>168768</v>
+      </c>
+      <c r="C92" s="10">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="B93" s="9">
+        <v>178619</v>
+      </c>
+      <c r="C93" s="10">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13">
+      <c r="B94" s="9">
+        <v>188458</v>
+      </c>
+      <c r="C94" s="10">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="B95" s="11">
+        <v>198310</v>
+      </c>
+      <c r="C95" s="12">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13">
+      <c r="B96" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="6">
+        <f>SUM(C76:C95) /COUNT(C76:C95)</f>
+        <v>2117</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="7">
+        <v>9995</v>
+      </c>
+      <c r="C110" s="8">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="9">
+        <v>19982</v>
+      </c>
+      <c r="C111" s="10">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="9">
+        <v>29959</v>
+      </c>
+      <c r="C112" s="10">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="9">
+        <v>39931</v>
+      </c>
+      <c r="C113" s="10">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="9">
+        <v>49903</v>
+      </c>
+      <c r="C114" s="10">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="9">
+        <v>59844</v>
+      </c>
+      <c r="C115" s="10">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="9">
+        <v>69789</v>
+      </c>
+      <c r="C116" s="10">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="9">
+        <v>79712</v>
+      </c>
+      <c r="C117" s="10">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="9">
+        <v>89642</v>
+      </c>
+      <c r="C118" s="10">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="9">
+        <v>99568</v>
+      </c>
+      <c r="C119" s="10">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="9">
+        <v>109476</v>
+      </c>
+      <c r="C120" s="10">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="9">
+        <v>119367</v>
+      </c>
+      <c r="C121" s="10">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="9">
+        <v>129263</v>
+      </c>
+      <c r="C122" s="10">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="9">
+        <v>139148</v>
+      </c>
+      <c r="C123" s="10">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="9">
+        <v>149025</v>
+      </c>
+      <c r="C124" s="10">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="9">
+        <v>158895</v>
+      </c>
+      <c r="C125" s="10">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="9">
+        <v>168768</v>
+      </c>
+      <c r="C126" s="10">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="9">
+        <v>178619</v>
+      </c>
+      <c r="C127" s="10">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="9">
+        <v>188458</v>
+      </c>
+      <c r="C128" s="10">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="B129" s="11">
+        <v>198310</v>
+      </c>
+      <c r="C129" s="12">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="6">
+        <f>SUM(C110:C129) /COUNT(C110:C129)</f>
+        <v>2273.35</v>
+      </c>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="B142" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="5">
-        <f>SUM(P8:P27) /COUNT(P8:P27)</f>
-        <v>2109.0500000000002</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC28" s="5">
-        <f>SUM(AC8:AC27) /COUNT(AC8:AC27)</f>
-        <v>2117</v>
-      </c>
-      <c r="AO28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP28" s="5">
-        <f>SUM(AP8:AP27) /COUNT(AP8:AP27)</f>
-        <v>2273.35</v>
-      </c>
-      <c r="BB28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC28" s="5">
-        <f>SUM(BC8:BC27) /COUNT(BC8:BC27)</f>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="B143" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="B144" s="7">
+        <v>9995</v>
+      </c>
+      <c r="C144" s="8">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="9">
+        <v>19982</v>
+      </c>
+      <c r="C145" s="10">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="9">
+        <v>29959</v>
+      </c>
+      <c r="C146" s="10">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="9">
+        <v>39931</v>
+      </c>
+      <c r="C147" s="10">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="9">
+        <v>49903</v>
+      </c>
+      <c r="C148" s="10">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="9">
+        <v>59844</v>
+      </c>
+      <c r="C149" s="10">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="9">
+        <v>69789</v>
+      </c>
+      <c r="C150" s="10">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="9">
+        <v>79712</v>
+      </c>
+      <c r="C151" s="10">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="9">
+        <v>89642</v>
+      </c>
+      <c r="C152" s="10">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="9">
+        <v>99568</v>
+      </c>
+      <c r="C153" s="10">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="9">
+        <v>109476</v>
+      </c>
+      <c r="C154" s="10">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="9">
+        <v>119367</v>
+      </c>
+      <c r="C155" s="10">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="9">
+        <v>129263</v>
+      </c>
+      <c r="C156" s="10">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="9">
+        <v>139148</v>
+      </c>
+      <c r="C157" s="10">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="9">
+        <v>149025</v>
+      </c>
+      <c r="C158" s="10">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="9">
+        <v>158895</v>
+      </c>
+      <c r="C159" s="10">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="9">
+        <v>168768</v>
+      </c>
+      <c r="C160" s="10">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="B161" s="9">
+        <v>178619</v>
+      </c>
+      <c r="C161" s="10">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="B162" s="9">
+        <v>188458</v>
+      </c>
+      <c r="C162" s="10">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="B163" s="11">
+        <v>198310</v>
+      </c>
+      <c r="C163" s="12">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="6">
+        <f>SUM(C144:C163) /COUNT(C144:C163)</f>
         <v>2311.25</v>
       </c>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
